--- a/Raw Images/Office/certificate.xlsx
+++ b/Raw Images/Office/certificate.xlsx
@@ -2052,13 +2052,16 @@
       <c r="A209" t="str">
         <v>largura</v>
       </c>
+      <c r="B209">
+        <v>275</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
         <v>peD</v>
       </c>
       <c r="B210">
-        <v>300</v>
+        <v>263</v>
       </c>
     </row>
     <row r="211">
@@ -2082,39 +2085,39 @@
         <v>orientacao</v>
       </c>
       <c r="B213" t="str">
-        <v/>
+        <v>Norte</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
         <v>uCValue</v>
       </c>
-      <c r="B214" t="str">
-        <v/>
+      <c r="B214">
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
         <v>espessura</v>
       </c>
-      <c r="B215" t="str">
-        <v/>
+      <c r="B215">
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
         <v>largura</v>
       </c>
-      <c r="B216" t="str">
-        <v/>
+      <c r="B216">
+        <v>250</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
         <v>peD</v>
       </c>
-      <c r="B217" t="str">
-        <v/>
+      <c r="B217">
+        <v>263</v>
       </c>
     </row>
     <row r="218">
@@ -2122,7 +2125,7 @@
         <v>cor</v>
       </c>
       <c r="B218" t="str">
-        <v/>
+        <v>C</v>
       </c>
     </row>
     <row r="219">
@@ -2138,39 +2141,39 @@
         <v>orientacao</v>
       </c>
       <c r="B220" t="str">
-        <v/>
+        <v>Norte</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
         <v>uCValue</v>
       </c>
-      <c r="B221" t="str">
-        <v/>
+      <c r="B221">
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
         <v>espessura</v>
       </c>
-      <c r="B222" t="str">
-        <v/>
+      <c r="B222">
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
         <v>largura</v>
       </c>
-      <c r="B223" t="str">
-        <v/>
+      <c r="B223">
+        <v>132</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
         <v>peD</v>
       </c>
-      <c r="B224" t="str">
-        <v/>
+      <c r="B224">
+        <v>263</v>
       </c>
     </row>
     <row r="225">
@@ -2178,7 +2181,7 @@
         <v>cor</v>
       </c>
       <c r="B225" t="str">
-        <v/>
+        <v>C</v>
       </c>
     </row>
     <row r="226">
@@ -2194,39 +2197,39 @@
         <v>orientacao</v>
       </c>
       <c r="B227" t="str">
-        <v/>
+        <v>Norte</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
         <v>uCValue</v>
       </c>
-      <c r="B228" t="str">
-        <v/>
+      <c r="B228">
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
         <v>espessura</v>
       </c>
-      <c r="B229" t="str">
-        <v/>
+      <c r="B229">
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
         <v>largura</v>
       </c>
-      <c r="B230" t="str">
-        <v/>
+      <c r="B230">
+        <v>180</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
         <v>peD</v>
       </c>
-      <c r="B231" t="str">
-        <v/>
+      <c r="B231">
+        <v>263</v>
       </c>
     </row>
     <row r="232">
@@ -2234,7 +2237,7 @@
         <v>cor</v>
       </c>
       <c r="B232" t="str">
-        <v/>
+        <v>C</v>
       </c>
     </row>
     <row r="233">
@@ -2250,39 +2253,39 @@
         <v>orientacao</v>
       </c>
       <c r="B234" t="str">
-        <v/>
+        <v>Norte</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
         <v>uCValue</v>
       </c>
-      <c r="B235" t="str">
-        <v/>
+      <c r="B235">
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
         <v>espessura</v>
       </c>
-      <c r="B236" t="str">
-        <v/>
+      <c r="B236">
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
         <v>largura</v>
       </c>
-      <c r="B237" t="str">
-        <v/>
+      <c r="B237">
+        <v>195</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
         <v>peD</v>
       </c>
-      <c r="B238" t="str">
-        <v/>
+      <c r="B238">
+        <v>263</v>
       </c>
     </row>
     <row r="239">
@@ -2290,7 +2293,7 @@
         <v>cor</v>
       </c>
       <c r="B239" t="str">
-        <v/>
+        <v>C</v>
       </c>
     </row>
     <row r="240">
@@ -3785,18 +3788,24 @@
       <c r="A453" t="str">
         <v>lado1</v>
       </c>
+      <c r="B453">
+        <v>78</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="str">
         <v>lado2</v>
       </c>
+      <c r="B454">
+        <v>47</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="str">
         <v>envolvente</v>
       </c>
       <c r="B455" t="str">
-        <v/>
+        <v>PE04/Norte</v>
       </c>
     </row>
     <row r="456">
@@ -3899,18 +3908,24 @@
       <c r="A468" t="str">
         <v>lado1</v>
       </c>
+      <c r="B468">
+        <v>78</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="str">
         <v>lado2</v>
       </c>
+      <c r="B469">
+        <v>47</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="str">
         <v>envolvente</v>
       </c>
       <c r="B470" t="str">
-        <v/>
+        <v>PE05/Norte</v>
       </c>
     </row>
     <row r="471">
@@ -4013,18 +4028,24 @@
       <c r="A483" t="str">
         <v>lado1</v>
       </c>
+      <c r="B483">
+        <v>78</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="str">
         <v>lado2</v>
       </c>
+      <c r="B484">
+        <v>47</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="str">
         <v>envolvente</v>
       </c>
       <c r="B485" t="str">
-        <v/>
+        <v>PE06/Norte</v>
       </c>
     </row>
     <row r="486">
@@ -4127,18 +4148,24 @@
       <c r="A498" t="str">
         <v>lado1</v>
       </c>
+      <c r="B498">
+        <v>120</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="str">
         <v>lado2</v>
       </c>
+      <c r="B499">
+        <v>116</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="str">
         <v>envolvente</v>
       </c>
       <c r="B500" t="str">
-        <v/>
+        <v>PE07/Norte</v>
       </c>
     </row>
     <row r="501">
@@ -8180,7 +8207,7 @@
         <v>valor</v>
       </c>
       <c r="B1009">
-        <v>9.5</v>
+        <v>19.82</v>
       </c>
     </row>
     <row r="1010">
@@ -8458,7 +8485,7 @@
         <v>valor</v>
       </c>
       <c r="B1049">
-        <v>10.2</v>
+        <v>22.42</v>
       </c>
     </row>
     <row r="1050">
@@ -11347,7 +11374,7 @@
         <v>area</v>
       </c>
       <c r="B1421">
-        <v>0</v>
+        <v>7.2325</v>
       </c>
     </row>
     <row r="1422">
@@ -11362,8 +11389,8 @@
       <c r="A1423" t="str">
         <v>solucao</v>
       </c>
-      <c r="B1423" t="str">
-        <v/>
+      <c r="B1423">
+        <v>1</v>
       </c>
     </row>
     <row r="1424">
@@ -11371,15 +11398,15 @@
         <v>orientacao</v>
       </c>
       <c r="B1424" t="str">
-        <v/>
+        <v>Norte</v>
       </c>
     </row>
     <row r="1425">
       <c r="A1425" t="str">
         <v>area</v>
       </c>
-      <c r="B1425" t="str">
-        <v/>
+      <c r="B1425">
+        <v>6.575</v>
       </c>
     </row>
     <row r="1426">
@@ -11387,15 +11414,15 @@
         <v>cor</v>
       </c>
       <c r="B1426" t="str">
-        <v/>
+        <v>Clara</v>
       </c>
     </row>
     <row r="1427">
       <c r="A1427" t="str">
         <v>solucao</v>
       </c>
-      <c r="B1427" t="str">
-        <v/>
+      <c r="B1427">
+        <v>1</v>
       </c>
     </row>
     <row r="1428">
@@ -11403,15 +11430,15 @@
         <v>orientacao</v>
       </c>
       <c r="B1428" t="str">
-        <v/>
+        <v>Norte</v>
       </c>
     </row>
     <row r="1429">
       <c r="A1429" t="str">
         <v>area</v>
       </c>
-      <c r="B1429" t="str">
-        <v/>
+      <c r="B1429">
+        <v>3.4716</v>
       </c>
     </row>
     <row r="1430">
@@ -11419,15 +11446,15 @@
         <v>cor</v>
       </c>
       <c r="B1430" t="str">
-        <v/>
+        <v>Clara</v>
       </c>
     </row>
     <row r="1431">
       <c r="A1431" t="str">
         <v>solucao</v>
       </c>
-      <c r="B1431" t="str">
-        <v/>
+      <c r="B1431">
+        <v>1</v>
       </c>
     </row>
     <row r="1432">
@@ -11435,15 +11462,15 @@
         <v>orientacao</v>
       </c>
       <c r="B1432" t="str">
-        <v/>
+        <v>Norte</v>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="str">
         <v>area</v>
       </c>
-      <c r="B1433" t="str">
-        <v/>
+      <c r="B1433">
+        <v>4.734</v>
       </c>
     </row>
     <row r="1434">
@@ -11451,15 +11478,15 @@
         <v>cor</v>
       </c>
       <c r="B1434" t="str">
-        <v/>
+        <v>Clara</v>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="str">
         <v>solucao</v>
       </c>
-      <c r="B1435" t="str">
-        <v/>
+      <c r="B1435">
+        <v>1</v>
       </c>
     </row>
     <row r="1436">
@@ -11467,15 +11494,15 @@
         <v>orientacao</v>
       </c>
       <c r="B1436" t="str">
-        <v/>
+        <v>Norte</v>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="str">
         <v>area</v>
       </c>
-      <c r="B1437" t="str">
-        <v/>
+      <c r="B1437">
+        <v>5.1285</v>
       </c>
     </row>
     <row r="1438">
@@ -11483,7 +11510,7 @@
         <v>cor</v>
       </c>
       <c r="B1438" t="str">
-        <v/>
+        <v>Clara</v>
       </c>
     </row>
     <row r="1439">
@@ -12830,7 +12857,7 @@
         <v>valor</v>
       </c>
       <c r="B1609">
-        <v>10.2</v>
+        <v>22.42</v>
       </c>
     </row>
     <row r="1610">
@@ -13044,7 +13071,7 @@
         <v>valor</v>
       </c>
       <c r="B1641">
-        <v>9.5</v>
+        <v>19.82</v>
       </c>
     </row>
     <row r="1642">
@@ -14665,23 +14692,23 @@
         <v>iD</v>
       </c>
       <c r="B1850" t="str">
-        <v>ENVEXT04</v>
+        <v>ENV04</v>
       </c>
     </row>
     <row r="1851">
       <c r="A1851" t="str">
         <v>lado1</v>
       </c>
-      <c r="B1851" t="str">
-        <v/>
+      <c r="B1851">
+        <v>78</v>
       </c>
     </row>
     <row r="1852">
       <c r="A1852" t="str">
         <v>lado2</v>
       </c>
-      <c r="B1852" t="str">
-        <v/>
+      <c r="B1852">
+        <v>47</v>
       </c>
     </row>
     <row r="1853">
@@ -14689,7 +14716,7 @@
         <v>envolvente</v>
       </c>
       <c r="B1853" t="str">
-        <v/>
+        <v>PE04/Norte</v>
       </c>
     </row>
     <row r="1854">
@@ -14697,7 +14724,7 @@
         <v>tipoCaixilho</v>
       </c>
       <c r="B1854" t="str">
-        <v/>
+        <v>S</v>
       </c>
     </row>
     <row r="1855">
@@ -14705,23 +14732,23 @@
         <v>tipoVidro</v>
       </c>
       <c r="B1855" t="str">
-        <v/>
+        <v>S</v>
       </c>
     </row>
     <row r="1856">
       <c r="A1856" t="str">
-        <v>tipoMaterial</v>
-      </c>
-      <c r="B1856" t="str">
-        <v/>
+        <v>uW</v>
+      </c>
+      <c r="B1856">
+        <v>6</v>
       </c>
     </row>
     <row r="1857">
       <c r="A1857" t="str">
-        <v>uW</v>
+        <v>tipoMaterial</v>
       </c>
       <c r="B1857" t="str">
-        <v/>
+        <v>Mt</v>
       </c>
     </row>
     <row r="1858">
@@ -14729,7 +14756,7 @@
         <v>classe</v>
       </c>
       <c r="B1858" t="str">
-        <v/>
+        <v>S</v>
       </c>
     </row>
     <row r="1859">
@@ -14737,31 +14764,31 @@
         <v>permeabilidade</v>
       </c>
       <c r="B1859" t="str">
-        <v/>
+        <v>N</v>
       </c>
     </row>
     <row r="1860">
       <c r="A1860" t="str">
         <v>gVidro</v>
       </c>
-      <c r="B1860" t="str">
-        <v/>
+      <c r="B1860">
+        <v>0.87</v>
       </c>
     </row>
     <row r="1861">
       <c r="A1861" t="str">
         <v>fsProt</v>
       </c>
-      <c r="B1861" t="str">
-        <v/>
+      <c r="B1861">
+        <v>1</v>
       </c>
     </row>
     <row r="1862">
       <c r="A1862" t="str">
         <v>protPermanente</v>
       </c>
-      <c r="B1862" t="str">
-        <v/>
+      <c r="B1862">
+        <v>0.87</v>
       </c>
     </row>
     <row r="1863">
@@ -14769,7 +14796,7 @@
         <v>sombI</v>
       </c>
       <c r="B1863" t="str">
-        <v/>
+        <v>S</v>
       </c>
     </row>
     <row r="1864">
@@ -14777,7 +14804,7 @@
         <v>sombE</v>
       </c>
       <c r="B1864" t="str">
-        <v/>
+        <v>S</v>
       </c>
     </row>
     <row r="1865">
@@ -14817,23 +14844,23 @@
         <v>iD</v>
       </c>
       <c r="B1869" t="str">
-        <v>ENVEXT05</v>
+        <v>ENV05</v>
       </c>
     </row>
     <row r="1870">
       <c r="A1870" t="str">
         <v>lado1</v>
       </c>
-      <c r="B1870" t="str">
-        <v/>
+      <c r="B1870">
+        <v>78</v>
       </c>
     </row>
     <row r="1871">
       <c r="A1871" t="str">
         <v>lado2</v>
       </c>
-      <c r="B1871" t="str">
-        <v/>
+      <c r="B1871">
+        <v>47</v>
       </c>
     </row>
     <row r="1872">
@@ -14841,7 +14868,7 @@
         <v>envolvente</v>
       </c>
       <c r="B1872" t="str">
-        <v/>
+        <v>PE05/Norte</v>
       </c>
     </row>
     <row r="1873">
@@ -14849,7 +14876,7 @@
         <v>tipoCaixilho</v>
       </c>
       <c r="B1873" t="str">
-        <v/>
+        <v>S</v>
       </c>
     </row>
     <row r="1874">
@@ -14857,23 +14884,23 @@
         <v>tipoVidro</v>
       </c>
       <c r="B1874" t="str">
-        <v/>
+        <v>S</v>
       </c>
     </row>
     <row r="1875">
       <c r="A1875" t="str">
-        <v>tipoMaterial</v>
-      </c>
-      <c r="B1875" t="str">
-        <v/>
+        <v>uW</v>
+      </c>
+      <c r="B1875">
+        <v>6</v>
       </c>
     </row>
     <row r="1876">
       <c r="A1876" t="str">
-        <v>uW</v>
+        <v>tipoMaterial</v>
       </c>
       <c r="B1876" t="str">
-        <v/>
+        <v>Mt</v>
       </c>
     </row>
     <row r="1877">
@@ -14881,7 +14908,7 @@
         <v>classe</v>
       </c>
       <c r="B1877" t="str">
-        <v/>
+        <v>S</v>
       </c>
     </row>
     <row r="1878">
@@ -14889,31 +14916,31 @@
         <v>permeabilidade</v>
       </c>
       <c r="B1878" t="str">
-        <v/>
+        <v>N</v>
       </c>
     </row>
     <row r="1879">
       <c r="A1879" t="str">
         <v>gVidro</v>
       </c>
-      <c r="B1879" t="str">
-        <v/>
+      <c r="B1879">
+        <v>0.87</v>
       </c>
     </row>
     <row r="1880">
       <c r="A1880" t="str">
         <v>fsProt</v>
       </c>
-      <c r="B1880" t="str">
-        <v/>
+      <c r="B1880">
+        <v>1</v>
       </c>
     </row>
     <row r="1881">
       <c r="A1881" t="str">
         <v>protPermanente</v>
       </c>
-      <c r="B1881" t="str">
-        <v/>
+      <c r="B1881">
+        <v>0.87</v>
       </c>
     </row>
     <row r="1882">
@@ -14921,7 +14948,7 @@
         <v>sombI</v>
       </c>
       <c r="B1882" t="str">
-        <v/>
+        <v>S</v>
       </c>
     </row>
     <row r="1883">
@@ -14929,7 +14956,7 @@
         <v>sombE</v>
       </c>
       <c r="B1883" t="str">
-        <v/>
+        <v>S</v>
       </c>
     </row>
     <row r="1884">
@@ -14969,23 +14996,23 @@
         <v>iD</v>
       </c>
       <c r="B1888" t="str">
-        <v>ENVEXT06</v>
+        <v>ENV06</v>
       </c>
     </row>
     <row r="1889">
       <c r="A1889" t="str">
         <v>lado1</v>
       </c>
-      <c r="B1889" t="str">
-        <v/>
+      <c r="B1889">
+        <v>78</v>
       </c>
     </row>
     <row r="1890">
       <c r="A1890" t="str">
         <v>lado2</v>
       </c>
-      <c r="B1890" t="str">
-        <v/>
+      <c r="B1890">
+        <v>47</v>
       </c>
     </row>
     <row r="1891">
@@ -14993,7 +15020,7 @@
         <v>envolvente</v>
       </c>
       <c r="B1891" t="str">
-        <v/>
+        <v>PE06/Norte</v>
       </c>
     </row>
     <row r="1892">
@@ -15001,7 +15028,7 @@
         <v>tipoCaixilho</v>
       </c>
       <c r="B1892" t="str">
-        <v/>
+        <v>S</v>
       </c>
     </row>
     <row r="1893">
@@ -15009,23 +15036,23 @@
         <v>tipoVidro</v>
       </c>
       <c r="B1893" t="str">
-        <v/>
+        <v>S</v>
       </c>
     </row>
     <row r="1894">
       <c r="A1894" t="str">
-        <v>tipoMaterial</v>
-      </c>
-      <c r="B1894" t="str">
-        <v/>
+        <v>uW</v>
+      </c>
+      <c r="B1894">
+        <v>6</v>
       </c>
     </row>
     <row r="1895">
       <c r="A1895" t="str">
-        <v>uW</v>
+        <v>tipoMaterial</v>
       </c>
       <c r="B1895" t="str">
-        <v/>
+        <v>Mt</v>
       </c>
     </row>
     <row r="1896">
@@ -15033,7 +15060,7 @@
         <v>classe</v>
       </c>
       <c r="B1896" t="str">
-        <v/>
+        <v>S</v>
       </c>
     </row>
     <row r="1897">
@@ -15041,31 +15068,31 @@
         <v>permeabilidade</v>
       </c>
       <c r="B1897" t="str">
-        <v/>
+        <v>N</v>
       </c>
     </row>
     <row r="1898">
       <c r="A1898" t="str">
         <v>gVidro</v>
       </c>
-      <c r="B1898" t="str">
-        <v/>
+      <c r="B1898">
+        <v>0.87</v>
       </c>
     </row>
     <row r="1899">
       <c r="A1899" t="str">
         <v>fsProt</v>
       </c>
-      <c r="B1899" t="str">
-        <v/>
+      <c r="B1899">
+        <v>1</v>
       </c>
     </row>
     <row r="1900">
       <c r="A1900" t="str">
         <v>protPermanente</v>
       </c>
-      <c r="B1900" t="str">
-        <v/>
+      <c r="B1900">
+        <v>0.87</v>
       </c>
     </row>
     <row r="1901">
@@ -15073,7 +15100,7 @@
         <v>sombI</v>
       </c>
       <c r="B1901" t="str">
-        <v/>
+        <v>S</v>
       </c>
     </row>
     <row r="1902">
@@ -15081,7 +15108,7 @@
         <v>sombE</v>
       </c>
       <c r="B1902" t="str">
-        <v/>
+        <v>S</v>
       </c>
     </row>
     <row r="1903">
@@ -15121,23 +15148,23 @@
         <v>iD</v>
       </c>
       <c r="B1907" t="str">
-        <v>ENVEXT07</v>
+        <v>ENV07</v>
       </c>
     </row>
     <row r="1908">
       <c r="A1908" t="str">
         <v>lado1</v>
       </c>
-      <c r="B1908" t="str">
-        <v/>
+      <c r="B1908">
+        <v>120</v>
       </c>
     </row>
     <row r="1909">
       <c r="A1909" t="str">
         <v>lado2</v>
       </c>
-      <c r="B1909" t="str">
-        <v/>
+      <c r="B1909">
+        <v>116</v>
       </c>
     </row>
     <row r="1910">
@@ -15145,7 +15172,7 @@
         <v>envolvente</v>
       </c>
       <c r="B1910" t="str">
-        <v/>
+        <v>PE07/Norte</v>
       </c>
     </row>
     <row r="1911">
@@ -15153,7 +15180,7 @@
         <v>tipoCaixilho</v>
       </c>
       <c r="B1911" t="str">
-        <v/>
+        <v>S</v>
       </c>
     </row>
     <row r="1912">
@@ -15161,23 +15188,23 @@
         <v>tipoVidro</v>
       </c>
       <c r="B1912" t="str">
-        <v/>
+        <v>S</v>
       </c>
     </row>
     <row r="1913">
       <c r="A1913" t="str">
-        <v>tipoMaterial</v>
-      </c>
-      <c r="B1913" t="str">
-        <v/>
+        <v>uW</v>
+      </c>
+      <c r="B1913">
+        <v>6</v>
       </c>
     </row>
     <row r="1914">
       <c r="A1914" t="str">
-        <v>uW</v>
+        <v>tipoMaterial</v>
       </c>
       <c r="B1914" t="str">
-        <v/>
+        <v>Mt</v>
       </c>
     </row>
     <row r="1915">
@@ -15185,7 +15212,7 @@
         <v>classe</v>
       </c>
       <c r="B1915" t="str">
-        <v/>
+        <v>S</v>
       </c>
     </row>
     <row r="1916">
@@ -15193,31 +15220,31 @@
         <v>permeabilidade</v>
       </c>
       <c r="B1916" t="str">
-        <v/>
+        <v>N</v>
       </c>
     </row>
     <row r="1917">
       <c r="A1917" t="str">
         <v>gVidro</v>
       </c>
-      <c r="B1917" t="str">
-        <v/>
+      <c r="B1917">
+        <v>0.87</v>
       </c>
     </row>
     <row r="1918">
       <c r="A1918" t="str">
         <v>fsProt</v>
       </c>
-      <c r="B1918" t="str">
-        <v/>
+      <c r="B1918">
+        <v>1</v>
       </c>
     </row>
     <row r="1919">
       <c r="A1919" t="str">
         <v>protPermanente</v>
       </c>
-      <c r="B1919" t="str">
-        <v/>
+      <c r="B1919">
+        <v>0.87</v>
       </c>
     </row>
     <row r="1920">
@@ -15225,7 +15252,7 @@
         <v>sombI</v>
       </c>
       <c r="B1920" t="str">
-        <v/>
+        <v>S</v>
       </c>
     </row>
     <row r="1921">
@@ -15233,7 +15260,7 @@
         <v>sombE</v>
       </c>
       <c r="B1921" t="str">
-        <v/>
+        <v>S</v>
       </c>
     </row>
     <row r="1922">
@@ -17249,7 +17276,7 @@
         <v>iD</v>
       </c>
       <c r="B2173" t="str">
-        <v>ENV04</v>
+        <v>ENV08</v>
       </c>
     </row>
     <row r="2174">
@@ -17363,7 +17390,7 @@
         <v>iD</v>
       </c>
       <c r="B2188" t="str">
-        <v>ENV05</v>
+        <v>ENV09</v>
       </c>
     </row>
     <row r="2189">
@@ -17477,7 +17504,7 @@
         <v>iD</v>
       </c>
       <c r="B2203" t="str">
-        <v>ENV06</v>
+        <v>ENV10</v>
       </c>
     </row>
     <row r="2204">
@@ -17591,7 +17618,7 @@
         <v>iD</v>
       </c>
       <c r="B2218" t="str">
-        <v>ENV07</v>
+        <v>ENV11</v>
       </c>
     </row>
     <row r="2219">
@@ -17705,7 +17732,7 @@
         <v>iD</v>
       </c>
       <c r="B2233" t="str">
-        <v>ENV08</v>
+        <v>ENV12</v>
       </c>
     </row>
     <row r="2234">
@@ -17819,18 +17846,24 @@
         <v>iD</v>
       </c>
       <c r="B2248" t="str">
-        <v>ENV09</v>
+        <v>ENVINT06</v>
       </c>
     </row>
     <row r="2249">
       <c r="A2249" t="str">
         <v>lado1</v>
       </c>
+      <c r="B2249" t="str">
+        <v/>
+      </c>
     </row>
     <row r="2250">
       <c r="A2250" t="str">
         <v>lado2</v>
       </c>
+      <c r="B2250" t="str">
+        <v/>
+      </c>
     </row>
     <row r="2251">
       <c r="A2251" t="str">
@@ -17845,7 +17878,7 @@
         <v>tipoCaixilho</v>
       </c>
       <c r="B2252" t="str">
-        <v>S</v>
+        <v/>
       </c>
     </row>
     <row r="2253">
@@ -17853,23 +17886,23 @@
         <v>tipoVidro</v>
       </c>
       <c r="B2253" t="str">
-        <v>S</v>
+        <v/>
       </c>
     </row>
     <row r="2254">
       <c r="A2254" t="str">
-        <v>uW</v>
-      </c>
-      <c r="B2254">
-        <v>6</v>
+        <v>tipoMaterial</v>
+      </c>
+      <c r="B2254" t="str">
+        <v/>
       </c>
     </row>
     <row r="2255">
       <c r="A2255" t="str">
-        <v>tipoMaterial</v>
+        <v>uW</v>
       </c>
       <c r="B2255" t="str">
-        <v>Mt</v>
+        <v/>
       </c>
     </row>
     <row r="2256">
@@ -17877,7 +17910,7 @@
         <v>classe</v>
       </c>
       <c r="B2256" t="str">
-        <v>S</v>
+        <v/>
       </c>
     </row>
     <row r="2257">
@@ -17885,31 +17918,31 @@
         <v>permeabilidade</v>
       </c>
       <c r="B2257" t="str">
-        <v>N</v>
+        <v/>
       </c>
     </row>
     <row r="2258">
       <c r="A2258" t="str">
         <v>gVidro</v>
       </c>
-      <c r="B2258">
-        <v>0.87</v>
+      <c r="B2258" t="str">
+        <v/>
       </c>
     </row>
     <row r="2259">
       <c r="A2259" t="str">
         <v>fsProt</v>
       </c>
-      <c r="B2259">
-        <v>1</v>
+      <c r="B2259" t="str">
+        <v/>
       </c>
     </row>
     <row r="2260">
       <c r="A2260" t="str">
         <v>protPermanente</v>
       </c>
-      <c r="B2260">
-        <v>0.87</v>
+      <c r="B2260" t="str">
+        <v/>
       </c>
     </row>
     <row r="2261">
@@ -17917,7 +17950,7 @@
         <v>sombI</v>
       </c>
       <c r="B2261" t="str">
-        <v>S</v>
+        <v/>
       </c>
     </row>
     <row r="2262">
@@ -17925,7 +17958,7 @@
         <v>sombE</v>
       </c>
       <c r="B2262" t="str">
-        <v>S</v>
+        <v/>
       </c>
     </row>
     <row r="2263">
@@ -17933,18 +17966,24 @@
         <v>iD</v>
       </c>
       <c r="B2263" t="str">
-        <v>ENV10</v>
+        <v>ENVINT07</v>
       </c>
     </row>
     <row r="2264">
       <c r="A2264" t="str">
         <v>lado1</v>
       </c>
+      <c r="B2264" t="str">
+        <v/>
+      </c>
     </row>
     <row r="2265">
       <c r="A2265" t="str">
         <v>lado2</v>
       </c>
+      <c r="B2265" t="str">
+        <v/>
+      </c>
     </row>
     <row r="2266">
       <c r="A2266" t="str">
@@ -17959,7 +17998,7 @@
         <v>tipoCaixilho</v>
       </c>
       <c r="B2267" t="str">
-        <v>S</v>
+        <v/>
       </c>
     </row>
     <row r="2268">
@@ -17967,23 +18006,23 @@
         <v>tipoVidro</v>
       </c>
       <c r="B2268" t="str">
-        <v>S</v>
+        <v/>
       </c>
     </row>
     <row r="2269">
       <c r="A2269" t="str">
-        <v>uW</v>
-      </c>
-      <c r="B2269">
-        <v>6</v>
+        <v>tipoMaterial</v>
+      </c>
+      <c r="B2269" t="str">
+        <v/>
       </c>
     </row>
     <row r="2270">
       <c r="A2270" t="str">
-        <v>tipoMaterial</v>
+        <v>uW</v>
       </c>
       <c r="B2270" t="str">
-        <v>Mt</v>
+        <v/>
       </c>
     </row>
     <row r="2271">
@@ -17991,7 +18030,7 @@
         <v>classe</v>
       </c>
       <c r="B2271" t="str">
-        <v>S</v>
+        <v/>
       </c>
     </row>
     <row r="2272">
@@ -17999,31 +18038,31 @@
         <v>permeabilidade</v>
       </c>
       <c r="B2272" t="str">
-        <v>N</v>
+        <v/>
       </c>
     </row>
     <row r="2273">
       <c r="A2273" t="str">
         <v>gVidro</v>
       </c>
-      <c r="B2273">
-        <v>0.87</v>
+      <c r="B2273" t="str">
+        <v/>
       </c>
     </row>
     <row r="2274">
       <c r="A2274" t="str">
         <v>fsProt</v>
       </c>
-      <c r="B2274">
-        <v>1</v>
+      <c r="B2274" t="str">
+        <v/>
       </c>
     </row>
     <row r="2275">
       <c r="A2275" t="str">
         <v>protPermanente</v>
       </c>
-      <c r="B2275">
-        <v>0.87</v>
+      <c r="B2275" t="str">
+        <v/>
       </c>
     </row>
     <row r="2276">
@@ -18031,7 +18070,7 @@
         <v>sombI</v>
       </c>
       <c r="B2276" t="str">
-        <v>S</v>
+        <v/>
       </c>
     </row>
     <row r="2277">
@@ -18039,7 +18078,7 @@
         <v>sombE</v>
       </c>
       <c r="B2277" t="str">
-        <v>S</v>
+        <v/>
       </c>
     </row>
     <row r="2278">
@@ -18047,18 +18086,24 @@
         <v>iD</v>
       </c>
       <c r="B2278" t="str">
-        <v>ENV11</v>
+        <v>ENVINT08</v>
       </c>
     </row>
     <row r="2279">
       <c r="A2279" t="str">
         <v>lado1</v>
       </c>
+      <c r="B2279" t="str">
+        <v/>
+      </c>
     </row>
     <row r="2280">
       <c r="A2280" t="str">
         <v>lado2</v>
       </c>
+      <c r="B2280" t="str">
+        <v/>
+      </c>
     </row>
     <row r="2281">
       <c r="A2281" t="str">
@@ -18073,7 +18118,7 @@
         <v>tipoCaixilho</v>
       </c>
       <c r="B2282" t="str">
-        <v>S</v>
+        <v/>
       </c>
     </row>
     <row r="2283">
@@ -18081,23 +18126,23 @@
         <v>tipoVidro</v>
       </c>
       <c r="B2283" t="str">
-        <v>S</v>
+        <v/>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="str">
-        <v>uW</v>
-      </c>
-      <c r="B2284">
-        <v>6</v>
+        <v>tipoMaterial</v>
+      </c>
+      <c r="B2284" t="str">
+        <v/>
       </c>
     </row>
     <row r="2285">
       <c r="A2285" t="str">
-        <v>tipoMaterial</v>
+        <v>uW</v>
       </c>
       <c r="B2285" t="str">
-        <v>Mt</v>
+        <v/>
       </c>
     </row>
     <row r="2286">
@@ -18105,7 +18150,7 @@
         <v>classe</v>
       </c>
       <c r="B2286" t="str">
-        <v>S</v>
+        <v/>
       </c>
     </row>
     <row r="2287">
@@ -18113,31 +18158,31 @@
         <v>permeabilidade</v>
       </c>
       <c r="B2287" t="str">
-        <v>N</v>
+        <v/>
       </c>
     </row>
     <row r="2288">
       <c r="A2288" t="str">
         <v>gVidro</v>
       </c>
-      <c r="B2288">
-        <v>0.87</v>
+      <c r="B2288" t="str">
+        <v/>
       </c>
     </row>
     <row r="2289">
       <c r="A2289" t="str">
         <v>fsProt</v>
       </c>
-      <c r="B2289">
-        <v>1</v>
+      <c r="B2289" t="str">
+        <v/>
       </c>
     </row>
     <row r="2290">
       <c r="A2290" t="str">
         <v>protPermanente</v>
       </c>
-      <c r="B2290">
-        <v>0.87</v>
+      <c r="B2290" t="str">
+        <v/>
       </c>
     </row>
     <row r="2291">
@@ -18145,7 +18190,7 @@
         <v>sombI</v>
       </c>
       <c r="B2291" t="str">
-        <v>S</v>
+        <v/>
       </c>
     </row>
     <row r="2292">
@@ -18153,7 +18198,7 @@
         <v>sombE</v>
       </c>
       <c r="B2292" t="str">
-        <v>S</v>
+        <v/>
       </c>
     </row>
     <row r="2293">
@@ -18161,18 +18206,24 @@
         <v>iD</v>
       </c>
       <c r="B2293" t="str">
-        <v>ENV12</v>
+        <v>ENVINT09</v>
       </c>
     </row>
     <row r="2294">
       <c r="A2294" t="str">
         <v>lado1</v>
       </c>
+      <c r="B2294" t="str">
+        <v/>
+      </c>
     </row>
     <row r="2295">
       <c r="A2295" t="str">
         <v>lado2</v>
       </c>
+      <c r="B2295" t="str">
+        <v/>
+      </c>
     </row>
     <row r="2296">
       <c r="A2296" t="str">
@@ -18187,7 +18238,7 @@
         <v>tipoCaixilho</v>
       </c>
       <c r="B2297" t="str">
-        <v>S</v>
+        <v/>
       </c>
     </row>
     <row r="2298">
@@ -18195,23 +18246,23 @@
         <v>tipoVidro</v>
       </c>
       <c r="B2298" t="str">
-        <v>S</v>
+        <v/>
       </c>
     </row>
     <row r="2299">
       <c r="A2299" t="str">
-        <v>uW</v>
-      </c>
-      <c r="B2299">
-        <v>6</v>
+        <v>tipoMaterial</v>
+      </c>
+      <c r="B2299" t="str">
+        <v/>
       </c>
     </row>
     <row r="2300">
       <c r="A2300" t="str">
-        <v>tipoMaterial</v>
+        <v>uW</v>
       </c>
       <c r="B2300" t="str">
-        <v>Mt</v>
+        <v/>
       </c>
     </row>
     <row r="2301">
@@ -18219,7 +18270,7 @@
         <v>classe</v>
       </c>
       <c r="B2301" t="str">
-        <v>S</v>
+        <v/>
       </c>
     </row>
     <row r="2302">
@@ -18227,31 +18278,31 @@
         <v>permeabilidade</v>
       </c>
       <c r="B2302" t="str">
-        <v>N</v>
+        <v/>
       </c>
     </row>
     <row r="2303">
       <c r="A2303" t="str">
         <v>gVidro</v>
       </c>
-      <c r="B2303">
-        <v>0.87</v>
+      <c r="B2303" t="str">
+        <v/>
       </c>
     </row>
     <row r="2304">
       <c r="A2304" t="str">
         <v>fsProt</v>
       </c>
-      <c r="B2304">
-        <v>1</v>
+      <c r="B2304" t="str">
+        <v/>
       </c>
     </row>
     <row r="2305">
       <c r="A2305" t="str">
         <v>protPermanente</v>
       </c>
-      <c r="B2305">
-        <v>0.87</v>
+      <c r="B2305" t="str">
+        <v/>
       </c>
     </row>
     <row r="2306">
@@ -18259,7 +18310,7 @@
         <v>sombI</v>
       </c>
       <c r="B2306" t="str">
-        <v>S</v>
+        <v/>
       </c>
     </row>
     <row r="2307">
@@ -18267,7 +18318,7 @@
         <v>sombE</v>
       </c>
       <c r="B2307" t="str">
-        <v>S</v>
+        <v/>
       </c>
     </row>
     <row r="2308">
